--- a/grafico.xlsx
+++ b/grafico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MASSIMO\SCUOLA\UNIVERSITA'\TerzoAnno\RO\Progetto RO\Progetto-RO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7801ACB4-6A7E-4524-A96C-A53354A89225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44743B19-EB8E-47E8-A14F-DFA083C34569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="0" windowWidth="11202" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,7 +284,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>78517.7</c:v>
+                  <c:v>53241.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40971.699999999997</c:v>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78517.7</v>
+        <v>53241.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
